--- a/Diagnosis and autonomic marker data for VNS research_20250813.xlsx
+++ b/Diagnosis and autonomic marker data for VNS research_20250813.xlsx
@@ -1,28 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_歷史區\論文投稿\_accepted_自己的\202406 診斷effect size與biomarker分析\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FLY114\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56828BF-33C2-400D-8513-FB1526EA7467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673C737-5D74-463E-87A9-739F2A1079D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$503</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>DM</t>
   </si>
@@ -432,15 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -493,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45</v>
       </c>
@@ -546,7 +566,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -599,7 +619,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>29</v>
       </c>
@@ -652,7 +672,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22</v>
       </c>
@@ -705,7 +725,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29</v>
       </c>
@@ -758,7 +778,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31</v>
       </c>
@@ -811,7 +831,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41</v>
       </c>
@@ -864,7 +884,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52</v>
       </c>
@@ -917,7 +937,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27</v>
       </c>
@@ -970,7 +990,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>44</v>
       </c>
@@ -1023,7 +1043,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>52</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>69</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>63</v>
       </c>
@@ -1235,7 +1255,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>45</v>
       </c>
@@ -1288,7 +1308,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57</v>
       </c>
@@ -1447,7 +1467,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>68</v>
       </c>
@@ -1500,7 +1520,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>39</v>
       </c>
@@ -1606,7 +1626,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1659,7 +1679,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>59</v>
       </c>
@@ -1712,7 +1732,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1765,7 +1785,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>49</v>
       </c>
@@ -1818,7 +1838,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>46</v>
       </c>
@@ -1871,7 +1891,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>52</v>
       </c>
@@ -1924,7 +1944,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>53</v>
       </c>
@@ -1977,7 +1997,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2030,7 +2050,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
@@ -2083,7 +2103,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>64</v>
       </c>
@@ -2136,7 +2156,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>52</v>
       </c>
@@ -2189,7 +2209,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>37</v>
       </c>
@@ -2242,7 +2262,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43</v>
       </c>
@@ -2348,7 +2368,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>39</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2454,7 +2474,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>41</v>
       </c>
@@ -2507,7 +2527,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>52</v>
       </c>
@@ -2613,7 +2633,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>57</v>
       </c>
@@ -2666,7 +2686,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>60</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -2772,7 +2792,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>29</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>51</v>
       </c>
@@ -2878,7 +2898,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>52</v>
       </c>
@@ -2931,7 +2951,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64</v>
       </c>
@@ -2984,7 +3004,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>63</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>15.16</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>65</v>
       </c>
@@ -3090,7 +3110,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3143,7 +3163,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
@@ -3249,7 +3269,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>39</v>
       </c>
@@ -3302,7 +3322,7 @@
         <v>9.74</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3355,7 +3375,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>45</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45</v>
       </c>
@@ -3514,7 +3534,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>34</v>
       </c>
@@ -3567,7 +3587,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>61</v>
       </c>
@@ -3620,7 +3640,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>56</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44</v>
       </c>
@@ -3779,7 +3799,7 @@
         <v>8.9600000000000009</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>51</v>
       </c>
@@ -3832,7 +3852,7 @@
         <v>46.21</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44</v>
       </c>
@@ -3885,7 +3905,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>49</v>
       </c>
@@ -3938,7 +3958,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>37</v>
       </c>
@@ -3991,7 +4011,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>42</v>
       </c>
@@ -4044,7 +4064,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>59</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>40</v>
       </c>
@@ -4150,7 +4170,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>55</v>
       </c>
@@ -4203,7 +4223,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>27</v>
       </c>
@@ -4256,7 +4276,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>47</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -4362,7 +4382,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>31</v>
       </c>
@@ -4415,7 +4435,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>55</v>
       </c>
@@ -4468,7 +4488,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>56</v>
       </c>
@@ -4521,7 +4541,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>42</v>
       </c>
@@ -4574,7 +4594,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>47</v>
       </c>
@@ -4627,7 +4647,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>54</v>
       </c>
@@ -4680,7 +4700,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>33</v>
       </c>
@@ -4733,7 +4753,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>48</v>
       </c>
@@ -4839,7 +4859,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>54</v>
       </c>
@@ -4892,7 +4912,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>57</v>
       </c>
@@ -4945,7 +4965,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -4998,7 +5018,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>48</v>
       </c>
@@ -5051,7 +5071,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>40</v>
       </c>
@@ -5104,7 +5124,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>42</v>
       </c>
@@ -5157,7 +5177,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>27</v>
       </c>
@@ -5210,7 +5230,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>35</v>
       </c>
@@ -5263,7 +5283,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>36</v>
       </c>
@@ -5316,7 +5336,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>58</v>
       </c>
@@ -5369,7 +5389,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>48</v>
       </c>
@@ -5422,7 +5442,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>65</v>
       </c>
@@ -5475,7 +5495,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>38</v>
       </c>
@@ -5528,7 +5548,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>65</v>
       </c>
@@ -5634,7 +5654,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22</v>
       </c>
@@ -5687,7 +5707,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>43</v>
       </c>
@@ -5740,7 +5760,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>54</v>
       </c>
@@ -5793,7 +5813,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25</v>
       </c>
@@ -5846,7 +5866,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>52</v>
       </c>
@@ -5899,7 +5919,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>35</v>
       </c>
@@ -5952,7 +5972,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>45</v>
       </c>
@@ -6005,7 +6025,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>22</v>
       </c>
@@ -6058,7 +6078,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>43</v>
       </c>
@@ -6111,7 +6131,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>65</v>
       </c>
@@ -6164,7 +6184,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>49</v>
       </c>
@@ -6217,7 +6237,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>68</v>
       </c>
@@ -6270,7 +6290,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>29</v>
       </c>
@@ -6323,7 +6343,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>49</v>
       </c>
@@ -6376,7 +6396,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>36</v>
       </c>
@@ -6429,7 +6449,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>30</v>
       </c>
@@ -6482,7 +6502,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>57</v>
       </c>
@@ -6535,7 +6555,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>60</v>
       </c>
@@ -6588,7 +6608,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>64</v>
       </c>
@@ -6641,7 +6661,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>60</v>
       </c>
@@ -6694,7 +6714,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>53</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>54</v>
       </c>
@@ -6800,7 +6820,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>64</v>
       </c>
@@ -6853,7 +6873,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>63</v>
       </c>
@@ -6906,7 +6926,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>42</v>
       </c>
@@ -6959,7 +6979,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>52</v>
       </c>
@@ -7012,7 +7032,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>30</v>
       </c>
@@ -7065,7 +7085,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>60</v>
       </c>
@@ -7118,7 +7138,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>67</v>
       </c>
@@ -7171,7 +7191,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>50</v>
       </c>
@@ -7224,7 +7244,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>57</v>
       </c>
@@ -7277,7 +7297,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>69</v>
       </c>
@@ -7330,7 +7350,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>44</v>
       </c>
@@ -7383,7 +7403,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>47</v>
       </c>
@@ -7436,7 +7456,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>41</v>
       </c>
@@ -7489,7 +7509,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>58</v>
       </c>
@@ -7542,7 +7562,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>48</v>
       </c>
@@ -7595,7 +7615,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>46</v>
       </c>
@@ -7648,7 +7668,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24</v>
       </c>
@@ -7701,7 +7721,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>60</v>
       </c>
@@ -7754,7 +7774,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>67</v>
       </c>
@@ -7807,7 +7827,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>55</v>
       </c>
@@ -7860,7 +7880,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>40</v>
       </c>
@@ -7913,7 +7933,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>60</v>
       </c>
@@ -7966,7 +7986,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>57</v>
       </c>
@@ -8019,7 +8039,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>38</v>
       </c>
@@ -8072,7 +8092,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>55</v>
       </c>
@@ -8125,7 +8145,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>64</v>
       </c>
@@ -8178,7 +8198,7 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>45</v>
       </c>
@@ -8231,7 +8251,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>50</v>
       </c>
@@ -8284,7 +8304,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>59</v>
       </c>
@@ -8337,7 +8357,7 @@
         <v>14.77</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>37</v>
       </c>
@@ -8390,7 +8410,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>69</v>
       </c>
@@ -8443,7 +8463,7 @@
         <v>17.55</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>61</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>29</v>
       </c>
@@ -8549,7 +8569,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>68</v>
       </c>
@@ -8602,7 +8622,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>22</v>
       </c>
@@ -8655,7 +8675,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>21</v>
       </c>
@@ -8708,7 +8728,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>58</v>
       </c>
@@ -8761,7 +8781,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>35</v>
       </c>
@@ -8814,7 +8834,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>47</v>
       </c>
@@ -8867,7 +8887,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57</v>
       </c>
@@ -8920,7 +8940,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>67</v>
       </c>
@@ -8973,7 +8993,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>30</v>
       </c>
@@ -9026,7 +9046,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>41</v>
       </c>
@@ -9079,7 +9099,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>29</v>
       </c>
@@ -9132,7 +9152,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>46</v>
       </c>
@@ -9185,7 +9205,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>51</v>
       </c>
@@ -9238,7 +9258,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>67</v>
       </c>
@@ -9291,7 +9311,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>57</v>
       </c>
@@ -9344,7 +9364,7 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>32</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>33</v>
       </c>
@@ -9450,7 +9470,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>46</v>
       </c>
@@ -9503,7 +9523,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>50</v>
       </c>
@@ -9556,7 +9576,7 @@
         <v>24.13</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>50</v>
       </c>
@@ -9609,7 +9629,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>51</v>
       </c>
@@ -9662,7 +9682,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>43</v>
       </c>
@@ -9715,7 +9735,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>28</v>
       </c>
@@ -9768,7 +9788,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>31</v>
       </c>
@@ -9821,7 +9841,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>31</v>
       </c>
@@ -9874,7 +9894,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>33</v>
       </c>
@@ -9927,7 +9947,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>41</v>
       </c>
@@ -9980,7 +10000,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>38</v>
       </c>
@@ -10033,7 +10053,7 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>38</v>
       </c>
@@ -10086,7 +10106,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>29</v>
       </c>
@@ -10139,7 +10159,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>41</v>
       </c>
@@ -10192,7 +10212,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>48</v>
       </c>
@@ -10245,7 +10265,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>55</v>
       </c>
@@ -10298,7 +10318,7 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>27</v>
       </c>
@@ -10351,7 +10371,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>57</v>
       </c>
@@ -10404,7 +10424,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>38</v>
       </c>
@@ -10457,7 +10477,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>42</v>
       </c>
@@ -10510,7 +10530,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>23</v>
       </c>
@@ -10563,7 +10583,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>21</v>
       </c>
@@ -10616,7 +10636,7 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>39</v>
       </c>
@@ -10669,7 +10689,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>51</v>
       </c>
@@ -10722,7 +10742,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>51</v>
       </c>
@@ -10775,7 +10795,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>56</v>
       </c>
@@ -10828,7 +10848,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>52</v>
       </c>
@@ -10881,7 +10901,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>37</v>
       </c>
@@ -10934,7 +10954,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>58</v>
       </c>
@@ -10987,7 +11007,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>40</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>63</v>
       </c>
@@ -11093,7 +11113,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>23</v>
       </c>
@@ -11146,7 +11166,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>30</v>
       </c>
@@ -11199,7 +11219,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>30</v>
       </c>
@@ -11252,7 +11272,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>37</v>
       </c>
@@ -11305,7 +11325,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>37</v>
       </c>
@@ -11358,7 +11378,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>46</v>
       </c>
@@ -11411,7 +11431,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>21</v>
       </c>
@@ -11464,7 +11484,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>57</v>
       </c>
@@ -11517,7 +11537,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>43</v>
       </c>
@@ -11570,7 +11590,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>52</v>
       </c>
@@ -11623,7 +11643,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>22</v>
       </c>
@@ -11676,7 +11696,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>45</v>
       </c>
@@ -11729,7 +11749,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>38</v>
       </c>
@@ -11782,7 +11802,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>66</v>
       </c>
@@ -11835,7 +11855,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>40</v>
       </c>
@@ -11888,7 +11908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>38</v>
       </c>
@@ -11941,7 +11961,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>23</v>
       </c>
@@ -11994,7 +12014,7 @@
         <v>8.32</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>26</v>
       </c>
@@ -12047,7 +12067,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>27</v>
       </c>
@@ -12100,7 +12120,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>60</v>
       </c>
@@ -12153,7 +12173,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>57</v>
       </c>
@@ -12206,7 +12226,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>42</v>
       </c>
@@ -12259,7 +12279,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>22</v>
       </c>
@@ -12312,7 +12332,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>58</v>
       </c>
@@ -12365,7 +12385,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>41</v>
       </c>
@@ -12418,7 +12438,7 @@
         <v>12.93</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>35</v>
       </c>
@@ -12471,7 +12491,7 @@
         <v>12.11</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>25</v>
       </c>
@@ -12524,7 +12544,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>54</v>
       </c>
@@ -12577,7 +12597,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>26</v>
       </c>
@@ -12630,7 +12650,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20</v>
       </c>
@@ -12683,7 +12703,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>55</v>
       </c>
@@ -12736,7 +12756,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>48</v>
       </c>
@@ -12789,7 +12809,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>51</v>
       </c>
@@ -12842,7 +12862,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>56</v>
       </c>
@@ -12895,7 +12915,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>26</v>
       </c>
@@ -12948,7 +12968,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>55</v>
       </c>
@@ -13001,7 +13021,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>39</v>
       </c>
@@ -13054,7 +13074,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>30</v>
       </c>
@@ -13107,7 +13127,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>44</v>
       </c>
@@ -13160,7 +13180,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>22</v>
       </c>
@@ -13213,7 +13233,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>27</v>
       </c>
@@ -13266,7 +13286,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>27</v>
       </c>
@@ -13319,7 +13339,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>65</v>
       </c>
@@ -13372,7 +13392,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>33</v>
       </c>
@@ -13425,7 +13445,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>37</v>
       </c>
@@ -13478,7 +13498,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>61</v>
       </c>
@@ -13531,7 +13551,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>28</v>
       </c>
@@ -13584,7 +13604,7 @@
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>28</v>
       </c>
@@ -13637,7 +13657,7 @@
         <v>23.89</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>55</v>
       </c>
@@ -13690,7 +13710,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>58</v>
       </c>
@@ -13743,7 +13763,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>27</v>
       </c>
@@ -13796,7 +13816,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>21</v>
       </c>
@@ -13849,7 +13869,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>23</v>
       </c>
@@ -13902,7 +13922,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>55</v>
       </c>
@@ -13955,7 +13975,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>46</v>
       </c>
@@ -14008,7 +14028,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>63</v>
       </c>
@@ -14061,7 +14081,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>48</v>
       </c>
@@ -14114,7 +14134,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>42</v>
       </c>
@@ -14167,7 +14187,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>37</v>
       </c>
@@ -14220,7 +14240,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>54</v>
       </c>
@@ -14273,7 +14293,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>29</v>
       </c>
@@ -14326,7 +14346,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>53</v>
       </c>
@@ -14379,7 +14399,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>41</v>
       </c>
@@ -14432,7 +14452,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>31</v>
       </c>
@@ -14485,7 +14505,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>50</v>
       </c>
@@ -14538,7 +14558,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>36</v>
       </c>
@@ -14591,7 +14611,7 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>42</v>
       </c>
@@ -14644,7 +14664,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>56</v>
       </c>
@@ -14697,7 +14717,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>56</v>
       </c>
@@ -14750,7 +14770,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>25</v>
       </c>
@@ -14803,7 +14823,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>44</v>
       </c>
@@ -14856,7 +14876,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>30</v>
       </c>
@@ -14909,7 +14929,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>25</v>
       </c>
@@ -14962,7 +14982,7 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>21</v>
       </c>
@@ -15015,7 +15035,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>27</v>
       </c>
@@ -15068,7 +15088,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>52</v>
       </c>
@@ -15121,7 +15141,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>41</v>
       </c>
@@ -15174,7 +15194,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>56</v>
       </c>
@@ -15227,7 +15247,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>48</v>
       </c>
@@ -15280,7 +15300,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>46</v>
       </c>
@@ -15333,7 +15353,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>37</v>
       </c>
@@ -15386,7 +15406,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>48</v>
       </c>
@@ -15439,7 +15459,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>54</v>
       </c>
@@ -15492,7 +15512,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>42</v>
       </c>
@@ -15545,7 +15565,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>42</v>
       </c>
@@ -15598,7 +15618,7 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>20</v>
       </c>
@@ -15651,7 +15671,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>46</v>
       </c>
@@ -15704,7 +15724,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>23</v>
       </c>
@@ -15757,7 +15777,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>31</v>
       </c>
@@ -15810,7 +15830,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>34</v>
       </c>
@@ -15863,7 +15883,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>44</v>
       </c>
@@ -15916,7 +15936,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>39</v>
       </c>
@@ -15969,7 +15989,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>47</v>
       </c>
@@ -16022,7 +16042,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>39</v>
       </c>
@@ -16075,7 +16095,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>66</v>
       </c>
@@ -16128,7 +16148,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>42</v>
       </c>
@@ -16181,7 +16201,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>41</v>
       </c>
@@ -16234,7 +16254,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>42</v>
       </c>
@@ -16287,7 +16307,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>43</v>
       </c>
@@ -16340,7 +16360,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>31</v>
       </c>
@@ -16393,7 +16413,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>33</v>
       </c>
@@ -16446,7 +16466,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>48</v>
       </c>
@@ -16499,7 +16519,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>43</v>
       </c>
@@ -16552,7 +16572,7 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>44</v>
       </c>
@@ -16605,7 +16625,7 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>32</v>
       </c>
@@ -16658,7 +16678,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>45</v>
       </c>
@@ -16711,7 +16731,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>48</v>
       </c>
@@ -16764,7 +16784,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>43</v>
       </c>
@@ -16817,7 +16837,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>41</v>
       </c>
@@ -16870,7 +16890,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>33</v>
       </c>
@@ -16923,7 +16943,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>32</v>
       </c>
@@ -16976,7 +16996,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>42</v>
       </c>
@@ -17029,7 +17049,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>38</v>
       </c>
@@ -17082,7 +17102,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>35</v>
       </c>
@@ -17135,7 +17155,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>36</v>
       </c>
@@ -17188,7 +17208,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>41</v>
       </c>
@@ -17241,7 +17261,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>64</v>
       </c>
@@ -17294,7 +17314,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>65</v>
       </c>
@@ -17347,7 +17367,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>40</v>
       </c>
@@ -17400,7 +17420,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>49</v>
       </c>
@@ -17453,7 +17473,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>48</v>
       </c>
@@ -17506,7 +17526,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>40</v>
       </c>
@@ -17559,7 +17579,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>33</v>
       </c>
@@ -17612,7 +17632,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>43</v>
       </c>
@@ -17665,7 +17685,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>66</v>
       </c>
@@ -17718,7 +17738,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>68</v>
       </c>
@@ -17771,7 +17791,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>68</v>
       </c>
@@ -17824,7 +17844,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>60</v>
       </c>
@@ -17877,7 +17897,7 @@
         <v>52.67</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>65</v>
       </c>
@@ -17930,7 +17950,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>69</v>
       </c>
@@ -17983,7 +18003,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>57</v>
       </c>
@@ -18036,7 +18056,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>66</v>
       </c>
@@ -18089,7 +18109,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>62</v>
       </c>
@@ -18142,7 +18162,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>65</v>
       </c>
@@ -18195,7 +18215,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>61</v>
       </c>
@@ -18248,7 +18268,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>60</v>
       </c>
@@ -18301,7 +18321,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>65</v>
       </c>
@@ -18354,7 +18374,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>63</v>
       </c>
@@ -18407,7 +18427,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>69</v>
       </c>
@@ -18460,7 +18480,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>37</v>
       </c>
@@ -18513,7 +18533,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>40</v>
       </c>
@@ -18566,7 +18586,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>32</v>
       </c>
@@ -18619,7 +18639,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>38</v>
       </c>
@@ -18672,7 +18692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>52</v>
       </c>
@@ -18725,7 +18745,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>40</v>
       </c>
@@ -18778,7 +18798,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>35</v>
       </c>
@@ -18831,7 +18851,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>27</v>
       </c>
@@ -18884,7 +18904,7 @@
         <v>33.39</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>44</v>
       </c>
@@ -18937,7 +18957,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>44</v>
       </c>
@@ -18990,7 +19010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>37</v>
       </c>
@@ -19043,7 +19063,7 @@
         <v>11.79</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>42</v>
       </c>
@@ -19096,7 +19116,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>37</v>
       </c>
@@ -19149,7 +19169,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>40</v>
       </c>
@@ -19202,7 +19222,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>43</v>
       </c>
@@ -19255,7 +19275,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>33</v>
       </c>
@@ -19308,7 +19328,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>27</v>
       </c>
@@ -19361,7 +19381,7 @@
         <v>33.979999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>39</v>
       </c>
@@ -19414,7 +19434,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>39</v>
       </c>
@@ -19467,7 +19487,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>35</v>
       </c>
@@ -19520,7 +19540,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>25</v>
       </c>
@@ -19573,7 +19593,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>48</v>
       </c>
@@ -19626,7 +19646,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>54</v>
       </c>
@@ -19679,7 +19699,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>31</v>
       </c>
@@ -19732,7 +19752,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>39</v>
       </c>
@@ -19785,7 +19805,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>45</v>
       </c>
@@ -19838,7 +19858,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>32</v>
       </c>
@@ -19891,7 +19911,7 @@
         <v>25.19</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>46</v>
       </c>
@@ -19944,7 +19964,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>23</v>
       </c>
@@ -19997,7 +20017,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>42</v>
       </c>
@@ -20050,7 +20070,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>26</v>
       </c>
@@ -20103,7 +20123,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>53</v>
       </c>
@@ -20156,7 +20176,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>24</v>
       </c>
@@ -20209,7 +20229,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>54</v>
       </c>
@@ -20262,7 +20282,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>43</v>
       </c>
@@ -20315,7 +20335,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>53</v>
       </c>
@@ -20368,7 +20388,7 @@
         <v>7.39</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>54</v>
       </c>
@@ -20421,7 +20441,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>23</v>
       </c>
@@ -20474,7 +20494,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>59</v>
       </c>
@@ -20527,7 +20547,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>32</v>
       </c>
@@ -20580,7 +20600,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>55</v>
       </c>
@@ -20633,7 +20653,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>53</v>
       </c>
@@ -20686,7 +20706,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>36</v>
       </c>
@@ -20739,7 +20759,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>34</v>
       </c>
@@ -20792,7 +20812,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>45</v>
       </c>
@@ -20845,7 +20865,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>22</v>
       </c>
@@ -20898,7 +20918,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>41</v>
       </c>
@@ -20951,7 +20971,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>53</v>
       </c>
@@ -21004,7 +21024,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>34</v>
       </c>
@@ -21057,7 +21077,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>37</v>
       </c>
@@ -21110,7 +21130,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>26</v>
       </c>
@@ -21163,7 +21183,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>46</v>
       </c>
@@ -21216,7 +21236,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>24</v>
       </c>
@@ -21269,7 +21289,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>25</v>
       </c>
@@ -21322,7 +21342,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>62</v>
       </c>
@@ -21375,7 +21395,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>40</v>
       </c>
@@ -21428,7 +21448,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>47</v>
       </c>
@@ -21481,7 +21501,7 @@
         <v>11.19</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>26</v>
       </c>
@@ -21534,7 +21554,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>33</v>
       </c>
@@ -21587,7 +21607,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>30</v>
       </c>
@@ -21640,7 +21660,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>43</v>
       </c>
@@ -21693,7 +21713,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>37</v>
       </c>
@@ -21746,7 +21766,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>54</v>
       </c>
@@ -21799,7 +21819,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>53</v>
       </c>
@@ -21852,7 +21872,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>38</v>
       </c>
@@ -21905,7 +21925,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>60</v>
       </c>
@@ -21958,7 +21978,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>67</v>
       </c>
@@ -22011,7 +22031,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>51</v>
       </c>
@@ -22064,7 +22084,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>50</v>
       </c>
@@ -22117,7 +22137,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>40</v>
       </c>
@@ -22170,7 +22190,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>28</v>
       </c>
@@ -22223,7 +22243,7 @@
         <v>11.86</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>65</v>
       </c>
@@ -22276,7 +22296,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>40</v>
       </c>
@@ -22329,7 +22349,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>39</v>
       </c>
@@ -22382,7 +22402,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>38</v>
       </c>
@@ -22435,7 +22455,7 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>68</v>
       </c>
@@ -22488,7 +22508,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>66</v>
       </c>
@@ -22541,7 +22561,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>44</v>
       </c>
@@ -22594,7 +22614,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>41</v>
       </c>
@@ -22647,7 +22667,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>37</v>
       </c>
@@ -22700,7 +22720,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>42</v>
       </c>
@@ -22753,7 +22773,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>36</v>
       </c>
@@ -22806,7 +22826,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>46</v>
       </c>
@@ -22859,7 +22879,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>38</v>
       </c>
@@ -22912,7 +22932,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>44</v>
       </c>
@@ -22965,7 +22985,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>75</v>
       </c>
@@ -23018,7 +23038,7 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>39</v>
       </c>
@@ -23071,7 +23091,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>64</v>
       </c>
@@ -23124,7 +23144,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>68</v>
       </c>
@@ -23177,7 +23197,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>70</v>
       </c>
@@ -23230,7 +23250,7 @@
         <v>32.14</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>67</v>
       </c>
@@ -23283,7 +23303,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>69</v>
       </c>
@@ -23336,7 +23356,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>69</v>
       </c>
@@ -23389,7 +23409,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>66</v>
       </c>
@@ -23442,7 +23462,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>46</v>
       </c>
@@ -23495,7 +23515,7 @@
         <v>17.920000000000002</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>53</v>
       </c>
@@ -23548,7 +23568,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>43</v>
       </c>
@@ -23601,7 +23621,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>46</v>
       </c>
@@ -23654,7 +23674,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>31</v>
       </c>
@@ -23707,7 +23727,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>45</v>
       </c>
@@ -23760,7 +23780,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>38</v>
       </c>
@@ -23813,7 +23833,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>52</v>
       </c>
@@ -23866,7 +23886,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>58</v>
       </c>
@@ -23919,7 +23939,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>43</v>
       </c>
@@ -23972,7 +23992,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>42</v>
       </c>
@@ -24025,7 +24045,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>42</v>
       </c>
@@ -24078,7 +24098,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>61</v>
       </c>
@@ -24131,7 +24151,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>37</v>
       </c>
@@ -24184,7 +24204,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>54</v>
       </c>
@@ -24237,7 +24257,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>30</v>
       </c>
@@ -24290,7 +24310,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>35</v>
       </c>
@@ -24343,7 +24363,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>25</v>
       </c>
@@ -24396,7 +24416,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>27</v>
       </c>
@@ -24449,7 +24469,7 @@
         <v>32.28</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>25</v>
       </c>
@@ -24502,7 +24522,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>30</v>
       </c>
@@ -24555,7 +24575,7 @@
         <v>32.28</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>35</v>
       </c>
@@ -24608,7 +24628,7 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>28</v>
       </c>
@@ -24661,7 +24681,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>34</v>
       </c>
@@ -24714,7 +24734,7 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>45</v>
       </c>
@@ -24767,7 +24787,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>41</v>
       </c>
@@ -24820,7 +24840,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>48</v>
       </c>
@@ -24873,7 +24893,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>44</v>
       </c>
@@ -24926,7 +24946,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>54</v>
       </c>
@@ -24979,7 +24999,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>61</v>
       </c>
@@ -25032,7 +25052,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>58</v>
       </c>
@@ -25085,7 +25105,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>37</v>
       </c>
@@ -25138,7 +25158,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>54</v>
       </c>
@@ -25191,7 +25211,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>41</v>
       </c>
@@ -25244,7 +25264,7 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>45</v>
       </c>
@@ -25297,7 +25317,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>46</v>
       </c>
@@ -25350,7 +25370,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>45</v>
       </c>
@@ -25403,7 +25423,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>49</v>
       </c>
@@ -25456,7 +25476,7 @@
         <v>39.659999999999997</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>65</v>
       </c>
@@ -25509,7 +25529,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>61</v>
       </c>
@@ -25562,7 +25582,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>49</v>
       </c>
@@ -25615,7 +25635,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>45</v>
       </c>
@@ -25668,7 +25688,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>56</v>
       </c>
@@ -25721,7 +25741,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>49</v>
       </c>
@@ -25774,7 +25794,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>51</v>
       </c>
@@ -25827,7 +25847,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>41</v>
       </c>
@@ -25880,7 +25900,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>53</v>
       </c>
@@ -25933,7 +25953,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>35</v>
       </c>
@@ -25986,7 +26006,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>42</v>
       </c>
@@ -26039,7 +26059,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>25</v>
       </c>
@@ -26092,7 +26112,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>39</v>
       </c>
@@ -26145,7 +26165,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>39</v>
       </c>
@@ -26198,7 +26218,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>42</v>
       </c>
@@ -26251,7 +26271,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>56</v>
       </c>
@@ -26304,7 +26324,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>41</v>
       </c>
@@ -26357,7 +26377,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>45</v>
       </c>
@@ -26410,7 +26430,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>27</v>
       </c>
@@ -26463,7 +26483,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>49</v>
       </c>
@@ -26516,7 +26536,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>20</v>
       </c>
@@ -26569,7 +26589,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>54</v>
       </c>
@@ -26622,7 +26642,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>63</v>
       </c>
@@ -26675,7 +26695,7 @@
         <v>34.67</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>42</v>
       </c>
@@ -26728,7 +26748,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>47</v>
       </c>
@@ -26781,7 +26801,7 @@
         <v>32.659999999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>43</v>
       </c>
@@ -26834,7 +26854,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>30</v>
       </c>
@@ -26887,7 +26907,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>29</v>
       </c>
@@ -26940,7 +26960,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>30</v>
       </c>
@@ -26993,7 +27013,7 @@
         <v>35.159999999999997</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>36</v>
       </c>
@@ -27046,7 +27066,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>21</v>
       </c>
@@ -27100,6 +27120,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q503" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27108,12 +27135,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G3:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>378</v>
+      </c>
+      <c r="I4">
+        <v>402</v>
+      </c>
+      <c r="J4">
+        <f>502-46</f>
+        <v>456</v>
+      </c>
+      <c r="K4">
+        <f>502-163</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>124</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27125,7 +27205,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
